--- a/画面設計/【画面設計】06_ユーザログイン.xlsx
+++ b/画面設計/【画面設計】06_ユーザログイン.xlsx
@@ -116,7 +116,7 @@
     <t>ログインボタンをクリック時</t>
   </si>
   <si>
-    <t>クリック時に、DBと照合して問題ない場合は、「ユーザ管理画面」（10_ユーザ管理(トップ)）へ遷移すること。</t>
+    <t>クリック時に、DBと照合して問題ない場合は、「ユーザ管理画面」（10_ユーザ管理(トップ)）へ遷移すること。遷移時にCookieにユーザIDを保存する。</t>
   </si>
   <si>
     <t>5.【フォーム情報】</t>
